--- a/java/src/main/resources/rating - 副本.xlsx
+++ b/java/src/main/resources/rating - 副本.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ACM-RATING-io\java\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58C57F-8C26-4DEA-954D-2AC757853FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="1" r:id="rId3"/>
-    <sheet name="2024" sheetId="2" r:id="rId4"/>
+    <sheet name="2023" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>who</t>
   </si>
@@ -157,9 +161,6 @@
     <t>刘晓芸</t>
   </si>
   <si>
-    <t>YhxTyk</t>
-  </si>
-  <si>
     <t>乌云上仙</t>
   </si>
   <si>
@@ -338,38 +339,53 @@
   </si>
   <si>
     <t>颜文渝</t>
+  </si>
+  <si>
+    <t>who</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantimereverse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yan_Wy</t>
+  </si>
+  <si>
+    <t>meimeimei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xyun_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="300" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
       <name val="Microsoft YaHei"/>
     </font>
     <font>
-      <name val="等线"/>
+      <sz val="8"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI Symbol"/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-    </font>
-    <font>
-      <name val="Microsoft YaHei"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,42 +405,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,7 +598,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -599,9 +622,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -625,7 +648,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -660,7 +683,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -678,7 +701,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -703,7 +726,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -712,539 +735,543 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="2023">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="2023"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="1">
+        <v>2440539709</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="4">
-        <v>2440539709</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="2024">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="2024"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>